--- a/Tools/testdata/avatar.xlsx
+++ b/Tools/testdata/avatar.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Field_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,13 +83,73 @@
   </si>
   <si>
     <t>Sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestClient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端字段测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器字段测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,6 +198,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -185,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +281,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,6 +333,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,23 +526,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H1" sqref="H1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +560,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -478,44 +586,65 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -529,10 +658,16 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -546,10 +681,16 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -562,6 +703,29 @@
       </c>
       <c r="E7">
         <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +741,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -590,7 +757,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
